--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1115,7 +1115,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1810,7 +1810,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger}
+    <t xml:space="preserve">value:$this.valueInteger.value}
 </t>
   </si>
   <si>
@@ -2705,7 +2705,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.29296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1810,7 +1810,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valueInteger.value}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -2705,7 +2705,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="28.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8425" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="754">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1810,11 +1810,11 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.valuecodeableConcept.code}
+    <t xml:space="preserve">value:$this.code}
 </t>
   </si>
   <si>
-    <t>Slice basiert auf component.code.coding.code #value</t>
+    <t>Slice basiert auf $this.code</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1949,8 +1949,7 @@
     <t>Observation.component:male.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.code}
-</t>
+    <t>Slice basiert auf $this.system und $this.code</t>
   </si>
   <si>
     <t>Observation.component:male.code.coding:MaleSNOMEDCode</t>
@@ -2038,10 +2037,6 @@
   </si>
   <si>
     <t>Observation.component:male.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-integer</t>
   </si>
   <si>
     <t>Observation.component:male.value[x]:valueInteger</t>
@@ -2709,7 +2704,7 @@
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="37.3046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
@@ -15078,13 +15073,13 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>82</v>
@@ -15166,7 +15161,7 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -17678,9 +17673,11 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AC124" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
@@ -19811,7 +19808,7 @@
         <v>93</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>651</v>
+        <v>420</v>
       </c>
       <c r="L142" t="s" s="2">
         <v>593</v>
@@ -19905,13 +19902,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>592</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -19933,7 +19930,7 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>593</v>
@@ -20029,10 +20026,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20147,10 +20144,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20267,10 +20264,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20293,13 +20290,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20317,40 +20314,40 @@
         <v>82</v>
       </c>
       <c r="U146" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="V146" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="V146" t="s" s="2">
+      <c r="W146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20385,7 +20382,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>592</v>
@@ -20507,7 +20504,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>599</v>
@@ -20627,7 +20624,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>604</v>
@@ -20749,7 +20746,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>605</v>
@@ -20871,13 +20868,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>571</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>82</v>
@@ -20995,7 +20992,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>580</v>
@@ -21113,7 +21110,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>581</v>
@@ -21233,7 +21230,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>582</v>
@@ -21355,14 +21352,14 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
@@ -21384,10 +21381,10 @@
         <v>198</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="N155" t="s" s="2">
         <v>617</v>
@@ -21477,7 +21474,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>588</v>
@@ -21595,7 +21592,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>589</v>
@@ -21715,7 +21712,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>590</v>
@@ -21790,9 +21787,11 @@
         <v>82</v>
       </c>
       <c r="AB158" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AC158" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AC158" s="2"/>
       <c r="AD158" t="s" s="2">
         <v>82</v>
       </c>
@@ -21835,13 +21834,13 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>82</v>
@@ -21959,7 +21958,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>625</v>
@@ -22077,7 +22076,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>627</v>
@@ -22197,7 +22196,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>629</v>
@@ -22319,7 +22318,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>631</v>
@@ -22439,7 +22438,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>633</v>
@@ -22484,7 +22483,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>82</v>
@@ -22561,7 +22560,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>636</v>
@@ -22683,7 +22682,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>638</v>
@@ -22805,13 +22804,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -22929,7 +22928,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>625</v>
@@ -23047,7 +23046,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>627</v>
@@ -23167,7 +23166,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>629</v>
@@ -23289,7 +23288,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>631</v>
@@ -23409,7 +23408,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>633</v>
@@ -23454,7 +23453,7 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>82</v>
@@ -23531,7 +23530,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>636</v>
@@ -23653,7 +23652,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>638</v>
@@ -23775,7 +23774,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>591</v>
@@ -23897,7 +23896,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>592</v>
@@ -23923,7 +23922,7 @@
         <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>651</v>
+        <v>420</v>
       </c>
       <c r="L176" t="s" s="2">
         <v>593</v>
@@ -24017,13 +24016,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>592</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>82</v>
@@ -24045,7 +24044,7 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L177" t="s" s="2">
         <v>593</v>
@@ -24141,10 +24140,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24259,10 +24258,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24379,10 +24378,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24405,13 +24404,13 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -24420,7 +24419,7 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24429,40 +24428,40 @@
         <v>82</v>
       </c>
       <c r="U180" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="V180" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="V180" t="s" s="2">
+      <c r="W180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF180" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="W180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24497,7 +24496,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>592</v>
@@ -24619,7 +24618,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>599</v>
@@ -24739,7 +24738,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>604</v>
@@ -24861,7 +24860,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>605</v>
@@ -24983,13 +24982,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>571</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>82</v>
@@ -25107,7 +25106,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>580</v>
@@ -25225,7 +25224,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>581</v>
@@ -25345,7 +25344,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>582</v>
@@ -25467,14 +25466,14 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -25496,10 +25495,10 @@
         <v>198</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>617</v>
@@ -25589,7 +25588,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>588</v>
@@ -25707,7 +25706,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>589</v>
@@ -25827,7 +25826,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>590</v>
@@ -25902,9 +25901,11 @@
         <v>82</v>
       </c>
       <c r="AB192" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AC192" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AC192" s="2"/>
       <c r="AD192" t="s" s="2">
         <v>82</v>
       </c>
@@ -25947,13 +25948,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>82</v>
@@ -26071,7 +26072,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>625</v>
@@ -26189,7 +26190,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>627</v>
@@ -26309,7 +26310,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>629</v>
@@ -26431,7 +26432,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>631</v>
@@ -26551,7 +26552,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>633</v>
@@ -26596,7 +26597,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>82</v>
@@ -26673,7 +26674,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>636</v>
@@ -26795,7 +26796,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>638</v>
@@ -26917,13 +26918,13 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>82</v>
@@ -27041,7 +27042,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>625</v>
@@ -27159,7 +27160,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>627</v>
@@ -27279,7 +27280,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>629</v>
@@ -27401,7 +27402,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>631</v>
@@ -27521,7 +27522,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>633</v>
@@ -27566,7 +27567,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>82</v>
@@ -27643,7 +27644,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>636</v>
@@ -27765,7 +27766,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>638</v>
@@ -27887,7 +27888,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>591</v>
@@ -28009,7 +28010,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>592</v>
@@ -28035,7 +28036,7 @@
         <v>93</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>651</v>
+        <v>420</v>
       </c>
       <c r="L210" t="s" s="2">
         <v>593</v>
@@ -28129,13 +28130,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>592</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>82</v>
@@ -28157,7 +28158,7 @@
         <v>93</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L211" t="s" s="2">
         <v>593</v>
@@ -28253,10 +28254,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28371,10 +28372,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28491,10 +28492,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28517,13 +28518,13 @@
         <v>82</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -28532,7 +28533,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>82</v>
@@ -28541,40 +28542,40 @@
         <v>82</v>
       </c>
       <c r="U214" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="V214" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="V214" t="s" s="2">
+      <c r="W214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF214" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="W214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE214" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF214" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28609,7 +28610,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>592</v>
@@ -28731,7 +28732,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>599</v>
@@ -28851,7 +28852,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>604</v>
@@ -28973,7 +28974,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>605</v>

--- a/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
+++ b/output/StructureDefinition-rv-sex-assigned-at-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="755">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1810,143 +1810,147 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Slice basiert auf code</t>
+  </si>
+  <si>
+    <t>containment by OBX-4?</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR +&lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
+  </si>
+  <si>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:male</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Observation.component:male.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code</t>
+  </si>
+  <si>
+    <t>Masculine
+Männlich</t>
+  </si>
+  <si>
+    <t>Male sex</t>
+  </si>
+  <si>
+    <t>Male sex that was assigned and recorded on the birth certificate at the time of an individual's birth.</t>
+  </si>
+  <si>
+    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:male.code.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:$this.code}
 </t>
-  </si>
-  <si>
-    <t>Slice basiert auf $this.code</t>
-  </si>
-  <si>
-    <t>containment by OBX-4?</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=COMP]</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>Observation.component.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t>Observation.component.code.text</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/de/ValueSet/vs-biological-gender</t>
-  </si>
-  <si>
-    <t>Observation.component.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
-  </si>
-  <si>
-    <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Observation.component:male</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Observation.component:male.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code</t>
-  </si>
-  <si>
-    <t>Masculine
-Männlich</t>
-  </si>
-  <si>
-    <t>Male sex</t>
-  </si>
-  <si>
-    <t>Male sex that was assigned and recorded on the birth certificate at the time of an individual's birth.</t>
-  </si>
-  <si>
-    <t>Zusätzliche Codes, die diesen Code übersetzen oder abbilden, sind erlaubt. Beispielsweise ein granularerer LOINC-Code oder Code, der lokal in einem System verwendet wird.</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.id</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.component:male.code.coding</t>
   </si>
   <si>
     <t>Slice basiert auf $this.system und $this.code</t>
@@ -17673,10 +17677,10 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="AC124" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD124" t="s" s="2">
         <v>82</v>
@@ -17720,13 +17724,13 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17844,10 +17848,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17962,10 +17966,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18082,10 +18086,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18204,10 +18208,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18324,10 +18328,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18369,7 +18373,7 @@
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>82</v>
@@ -18446,10 +18450,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18568,10 +18572,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18690,13 +18694,13 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>82</v>
@@ -18814,10 +18818,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18932,10 +18936,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19052,10 +19056,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19174,10 +19178,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19294,10 +19298,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19339,7 +19343,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>82</v>
@@ -19416,10 +19420,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19538,10 +19542,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19660,7 +19664,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>591</v>
@@ -19782,7 +19786,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>592</v>
@@ -19902,13 +19906,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>592</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -19930,7 +19934,7 @@
         <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>593</v>
@@ -20026,10 +20030,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20144,10 +20148,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20264,10 +20268,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20290,13 +20294,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20314,10 +20318,10 @@
         <v>82</v>
       </c>
       <c r="U146" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="V146" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="W146" t="s" s="2">
         <v>82</v>
@@ -20347,7 +20351,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20382,7 +20386,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>592</v>
@@ -20504,7 +20508,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>599</v>
@@ -20624,7 +20628,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>604</v>
@@ -20746,7 +20750,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>605</v>
@@ -20868,13 +20872,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>571</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>82</v>
@@ -20992,7 +20996,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>580</v>
@@ -21110,7 +21114,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>581</v>
@@ -21230,7 +21234,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>582</v>
@@ -21352,14 +21356,14 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
@@ -21381,10 +21385,10 @@
         <v>198</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N155" t="s" s="2">
         <v>617</v>
@@ -21474,7 +21478,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>588</v>
@@ -21592,7 +21596,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>589</v>
@@ -21712,7 +21716,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>590</v>
@@ -21787,10 +21791,10 @@
         <v>82</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>82</v>
@@ -21834,13 +21838,13 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>82</v>
@@ -21958,10 +21962,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22076,10 +22080,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22196,10 +22200,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22318,10 +22322,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22438,10 +22442,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22483,7 +22487,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>82</v>
@@ -22560,10 +22564,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22682,10 +22686,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22804,13 +22808,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -22928,10 +22932,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23046,10 +23050,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23166,10 +23170,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23288,10 +23292,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23408,10 +23412,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23453,7 +23457,7 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>82</v>
@@ -23530,10 +23534,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23652,10 +23656,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23774,7 +23778,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>591</v>
@@ -23896,7 +23900,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>592</v>
@@ -24016,13 +24020,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>592</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>82</v>
@@ -24044,7 +24048,7 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L177" t="s" s="2">
         <v>593</v>
@@ -24140,10 +24144,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24258,10 +24262,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24378,10 +24382,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24404,13 +24408,13 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -24419,7 +24423,7 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>82</v>
@@ -24428,10 +24432,10 @@
         <v>82</v>
       </c>
       <c r="U180" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="V180" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="W180" t="s" s="2">
         <v>82</v>
@@ -24461,7 +24465,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24496,7 +24500,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>592</v>
@@ -24618,7 +24622,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>599</v>
@@ -24738,7 +24742,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>604</v>
@@ -24860,7 +24864,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>605</v>
@@ -24982,13 +24986,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>571</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>82</v>
@@ -25106,7 +25110,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>580</v>
@@ -25224,7 +25228,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>581</v>
@@ -25344,7 +25348,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>582</v>
@@ -25466,14 +25470,14 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>583</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -25495,10 +25499,10 @@
         <v>198</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>617</v>
@@ -25588,7 +25592,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>588</v>
@@ -25706,7 +25710,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>589</v>
@@ -25826,7 +25830,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>590</v>
@@ -25901,10 +25905,10 @@
         <v>82</v>
       </c>
       <c r="AB192" t="s" s="2">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="AC192" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD192" t="s" s="2">
         <v>82</v>
@@ -25948,13 +25952,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>82</v>
@@ -26072,10 +26076,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26190,10 +26194,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26310,10 +26314,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26432,10 +26436,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26552,10 +26556,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26597,7 +26601,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>82</v>
@@ -26674,10 +26678,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26796,10 +26800,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26918,13 +26922,13 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>590</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>82</v>
@@ -27042,10 +27046,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27160,10 +27164,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27280,10 +27284,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27402,10 +27406,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27522,10 +27526,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27567,7 +27571,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>82</v>
@@ -27644,10 +27648,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27766,10 +27770,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27888,7 +27892,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>591</v>
@@ -28010,7 +28014,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>592</v>
@@ -28130,13 +28134,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>592</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>82</v>
@@ -28158,7 +28162,7 @@
         <v>93</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L211" t="s" s="2">
         <v>593</v>
@@ -28254,10 +28258,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28372,10 +28376,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28492,10 +28496,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28518,13 +28522,13 @@
         <v>82</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -28533,7 +28537,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>82</v>
@@ -28542,10 +28546,10 @@
         <v>82</v>
       </c>
       <c r="U214" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="V214" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="W214" t="s" s="2">
         <v>82</v>
@@ -28575,7 +28579,7 @@
         <v>82</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28610,7 +28614,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>592</v>
@@ -28732,7 +28736,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>599</v>
@@ -28852,7 +28856,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>604</v>
@@ -28974,7 +28978,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>605</v>
